--- a/xlsx/早午餐_intext.xlsx
+++ b/xlsx/早午餐_intext.xlsx
@@ -29,7 +29,7 @@
     <t>餐</t>
   </si>
   <si>
-    <t>政策_政策_美國_早午餐</t>
+    <t>政策_政策_美国_早午餐</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A9%E9%A4%90</t>
@@ -167,7 +167,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%B4%E6%9C%83</t>
   </si>
   <si>
-    <t>宴會</t>
+    <t>宴会</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Boodle_fight</t>
@@ -203,7 +203,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%80%B2%E9%A3%9F</t>
   </si>
   <si>
-    <t>進食</t>
+    <t>进食</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A3%9F%E7%89%A9</t>
@@ -233,7 +233,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A4%90%E6%A1%8C%E7%A6%AE%E5%84%80</t>
   </si>
   <si>
-    <t>餐桌禮儀</t>
+    <t>餐桌礼仪</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%8F%E5%90%83</t>
@@ -251,7 +251,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E8%AA%9E</t>
   </si>
   <si>
-    <t>英語</t>
+    <t>英语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%98%9F%E6%9C%9F%E6%97%A5</t>
@@ -275,13 +275,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E7%BE%8E</t>
   </si>
   <si>
-    <t>歐美</t>
+    <t>欧美</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9B%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>書院</t>
+    <t>书院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%BF%E8%88%8D</t>
@@ -305,25 +305,25 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A4%90%E5%96%AE</t>
   </si>
   <si>
-    <t>餐單</t>
+    <t>餐单</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%9E%E8%9B%8B</t>
   </si>
   <si>
-    <t>雞蛋</t>
+    <t>鸡蛋</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E8%85%B8</t>
   </si>
   <si>
-    <t>香腸</t>
+    <t>香肠</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%85%99%E8%82%89</t>
   </si>
   <si>
-    <t>煙肉</t>
+    <t>烟肉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%81%AB%E8%85%BF</t>
@@ -341,7 +341,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%86%B1%E9%A6%99%E9%A4%85</t>
   </si>
   <si>
-    <t>熱香餅</t>
+    <t>热香饼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%83%A4%E8%82%89</t>
@@ -359,7 +359,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%86%B7%E7%9B%A4</t>
   </si>
   <si>
-    <t>冷盤</t>
+    <t>冷盘</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B2%99%E6%8B%89</t>
@@ -371,37 +371,37 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B9%AF</t>
   </si>
   <si>
-    <t>湯</t>
+    <t>汤</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BA%B5%E5%8C%85</t>
   </si>
   <si>
-    <t>麵包</t>
+    <t>面包</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A3%B2%E5%93%81</t>
   </si>
   <si>
-    <t>飲品</t>
+    <t>饮品</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%9E%E5%B0%BE%E9%85%92</t>
   </si>
   <si>
-    <t>雞尾酒</t>
+    <t>鸡尾酒</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A1%80%E8%85%A5%E7%91%AA%E5%88%A9</t>
   </si>
   <si>
-    <t>血腥瑪利</t>
+    <t>血腥玛利</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
